--- a/data/outputs/能源化工元源数据文件_elsevier/9（4）BIORESOURCE TECHNOLOGY.xlsx
+++ b/data/outputs/能源化工元源数据文件_elsevier/9（4）BIORESOURCE TECHNOLOGY.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:BS38"/>
+  <dimension ref="A1:BU38"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -722,6 +722,16 @@
           <t>eid</t>
         </is>
       </c>
+      <c r="BT1" s="1" t="inlineStr">
+        <is>
+          <t>views</t>
+        </is>
+      </c>
+      <c r="BU1" s="1" t="inlineStr">
+        <is>
+          <t>citations</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="inlineStr">
@@ -937,6 +947,12 @@
           <t>2-s2.0-84909592638</t>
         </is>
       </c>
+      <c r="BT2" t="n">
+        <v>2091</v>
+      </c>
+      <c r="BU2" t="n">
+        <v>39</v>
+      </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
@@ -1160,6 +1176,12 @@
           <t>2-s2.0-84909943761</t>
         </is>
       </c>
+      <c r="BT3" t="n">
+        <v>1328</v>
+      </c>
+      <c r="BU3" t="n">
+        <v>24</v>
+      </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
@@ -1377,6 +1399,12 @@
           <t>2-s2.0-84909592636</t>
         </is>
       </c>
+      <c r="BT4" t="n">
+        <v>1730</v>
+      </c>
+      <c r="BU4" t="n">
+        <v>22</v>
+      </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
@@ -1596,6 +1624,12 @@
           <t>2-s2.0-84909942741</t>
         </is>
       </c>
+      <c r="BT5" t="n">
+        <v>1450</v>
+      </c>
+      <c r="BU5" t="n">
+        <v>20</v>
+      </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
@@ -1819,6 +1853,12 @@
           <t>2-s2.0-84909992004</t>
         </is>
       </c>
+      <c r="BT6" t="n">
+        <v>1242</v>
+      </c>
+      <c r="BU6" t="n">
+        <v>20</v>
+      </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
@@ -2030,6 +2070,12 @@
           <t>2-s2.0-84910017207</t>
         </is>
       </c>
+      <c r="BT7" t="n">
+        <v>2230</v>
+      </c>
+      <c r="BU7" t="n">
+        <v>38</v>
+      </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
@@ -2259,6 +2305,12 @@
           <t>2-s2.0-84909594398</t>
         </is>
       </c>
+      <c r="BT8" t="n">
+        <v>1317</v>
+      </c>
+      <c r="BU8" t="n">
+        <v>10</v>
+      </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
@@ -2482,6 +2534,12 @@
           <t>2-s2.0-84910010976</t>
         </is>
       </c>
+      <c r="BT9" t="n">
+        <v>3339</v>
+      </c>
+      <c r="BU9" t="n">
+        <v>82</v>
+      </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
@@ -2701,6 +2759,12 @@
           <t>2-s2.0-84909619621</t>
         </is>
       </c>
+      <c r="BT10" t="n">
+        <v>1690</v>
+      </c>
+      <c r="BU10" t="n">
+        <v>35</v>
+      </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
@@ -2916,6 +2980,12 @@
           <t>2-s2.0-84909594399</t>
         </is>
       </c>
+      <c r="BT11" t="n">
+        <v>1498</v>
+      </c>
+      <c r="BU11" t="n">
+        <v>10</v>
+      </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
@@ -3131,6 +3201,12 @@
           <t>2-s2.0-84909606902</t>
         </is>
       </c>
+      <c r="BT12" t="n">
+        <v>1605</v>
+      </c>
+      <c r="BU12" t="n">
+        <v>17</v>
+      </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
@@ -3354,6 +3430,12 @@
           <t>2-s2.0-84910011531</t>
         </is>
       </c>
+      <c r="BT13" t="n">
+        <v>768</v>
+      </c>
+      <c r="BU13" t="n">
+        <v>31</v>
+      </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
@@ -3577,6 +3659,12 @@
           <t>2-s2.0-84909992142</t>
         </is>
       </c>
+      <c r="BT14" t="n">
+        <v>3423</v>
+      </c>
+      <c r="BU14" t="n">
+        <v>79</v>
+      </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
@@ -3792,6 +3880,12 @@
           <t>2-s2.0-84909992743</t>
         </is>
       </c>
+      <c r="BT15" t="n">
+        <v>1517</v>
+      </c>
+      <c r="BU15" t="n">
+        <v>10</v>
+      </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
@@ -4017,6 +4111,12 @@
           <t>2-s2.0-84910010973</t>
         </is>
       </c>
+      <c r="BT16" t="n">
+        <v>2644</v>
+      </c>
+      <c r="BU16" t="n">
+        <v>20</v>
+      </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
@@ -4236,6 +4336,12 @@
           <t>2-s2.0-84910012837</t>
         </is>
       </c>
+      <c r="BT17" t="n">
+        <v>1147</v>
+      </c>
+      <c r="BU17" t="n">
+        <v>16</v>
+      </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
@@ -4451,6 +4557,12 @@
           <t>2-s2.0-84910011359</t>
         </is>
       </c>
+      <c r="BT18" t="n">
+        <v>1397</v>
+      </c>
+      <c r="BU18" t="n">
+        <v>20</v>
+      </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
@@ -4674,6 +4786,12 @@
           <t>2-s2.0-84910015770</t>
         </is>
       </c>
+      <c r="BT19" t="n">
+        <v>1171</v>
+      </c>
+      <c r="BU19" t="n">
+        <v>10</v>
+      </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
@@ -4889,6 +5007,12 @@
           <t>2-s2.0-84910000316</t>
         </is>
       </c>
+      <c r="BT20" t="n">
+        <v>1238</v>
+      </c>
+      <c r="BU20" t="n">
+        <v>31</v>
+      </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
@@ -5108,6 +5232,12 @@
           <t>2-s2.0-84910000315</t>
         </is>
       </c>
+      <c r="BT21" t="n">
+        <v>946</v>
+      </c>
+      <c r="BU21" t="n">
+        <v>10</v>
+      </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
@@ -5323,6 +5453,12 @@
           <t>2-s2.0-84910002459</t>
         </is>
       </c>
+      <c r="BT22" t="n">
+        <v>1863</v>
+      </c>
+      <c r="BU22" t="n">
+        <v>14</v>
+      </c>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
@@ -5538,6 +5674,12 @@
           <t>2-s2.0-84909992923</t>
         </is>
       </c>
+      <c r="BT23" t="n">
+        <v>1506</v>
+      </c>
+      <c r="BU23" t="n">
+        <v>35</v>
+      </c>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
@@ -5755,6 +5897,12 @@
           <t>2-s2.0-84910007856</t>
         </is>
       </c>
+      <c r="BT24" t="n">
+        <v>1278</v>
+      </c>
+      <c r="BU24" t="n">
+        <v>4</v>
+      </c>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
@@ -5978,6 +6126,12 @@
           <t>2-s2.0-84910637776</t>
         </is>
       </c>
+      <c r="BT25" t="n">
+        <v>1594</v>
+      </c>
+      <c r="BU25" t="n">
+        <v>30</v>
+      </c>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
@@ -6193,6 +6347,12 @@
           <t>2-s2.0-84910684825</t>
         </is>
       </c>
+      <c r="BT26" t="n">
+        <v>4104</v>
+      </c>
+      <c r="BU26" t="n">
+        <v>63</v>
+      </c>
     </row>
     <row r="27">
       <c r="A27" t="inlineStr">
@@ -6416,6 +6576,12 @@
           <t>2-s2.0-84910671195</t>
         </is>
       </c>
+      <c r="BT27" t="n">
+        <v>1373</v>
+      </c>
+      <c r="BU27" t="n">
+        <v>16</v>
+      </c>
     </row>
     <row r="28">
       <c r="A28" t="inlineStr">
@@ -6639,6 +6805,12 @@
           <t>2-s2.0-84911945985</t>
         </is>
       </c>
+      <c r="BT28" t="n">
+        <v>1232</v>
+      </c>
+      <c r="BU28" t="n">
+        <v>21</v>
+      </c>
     </row>
     <row r="29">
       <c r="A29" t="inlineStr">
@@ -6854,6 +7026,12 @@
           <t>2-s2.0-84911932535</t>
         </is>
       </c>
+      <c r="BT29" t="n">
+        <v>3080</v>
+      </c>
+      <c r="BU29" t="n">
+        <v>36</v>
+      </c>
     </row>
     <row r="30">
       <c r="A30" t="inlineStr">
@@ -7077,6 +7255,12 @@
           <t>2-s2.0-84911925828</t>
         </is>
       </c>
+      <c r="BT30" t="n">
+        <v>1921</v>
+      </c>
+      <c r="BU30" t="n">
+        <v>27</v>
+      </c>
     </row>
     <row r="31">
       <c r="A31" t="inlineStr">
@@ -7292,6 +7476,12 @@
           <t>2-s2.0-84911879961</t>
         </is>
       </c>
+      <c r="BT31" t="n">
+        <v>1072</v>
+      </c>
+      <c r="BU31" t="n">
+        <v>13</v>
+      </c>
     </row>
     <row r="32">
       <c r="A32" t="inlineStr">
@@ -7507,6 +7697,12 @@
           <t>2-s2.0-84911895322</t>
         </is>
       </c>
+      <c r="BT32" t="n">
+        <v>1637</v>
+      </c>
+      <c r="BU32" t="n">
+        <v>8</v>
+      </c>
     </row>
     <row r="33">
       <c r="A33" t="inlineStr">
@@ -7718,6 +7914,12 @@
           <t>2-s2.0-84911932798</t>
         </is>
       </c>
+      <c r="BT33" t="n">
+        <v>1599</v>
+      </c>
+      <c r="BU33" t="n">
+        <v>10</v>
+      </c>
     </row>
     <row r="34">
       <c r="A34" t="inlineStr">
@@ -7933,6 +8135,12 @@
           <t>2-s2.0-84911916911</t>
         </is>
       </c>
+      <c r="BT34" t="n">
+        <v>1420</v>
+      </c>
+      <c r="BU34" t="n">
+        <v>22</v>
+      </c>
     </row>
     <row r="35">
       <c r="A35" t="inlineStr">
@@ -8148,6 +8356,12 @@
           <t>2-s2.0-84911925049</t>
         </is>
       </c>
+      <c r="BT35" t="n">
+        <v>2694</v>
+      </c>
+      <c r="BU35" t="n">
+        <v>38</v>
+      </c>
     </row>
     <row r="36">
       <c r="A36" t="inlineStr">
@@ -8371,6 +8585,12 @@
           <t>2-s2.0-84911996489</t>
         </is>
       </c>
+      <c r="BT36" t="n">
+        <v>1582</v>
+      </c>
+      <c r="BU36" t="n">
+        <v>18</v>
+      </c>
     </row>
     <row r="37">
       <c r="A37" t="inlineStr">
@@ -8594,6 +8814,12 @@
           <t>2-s2.0-84911943262</t>
         </is>
       </c>
+      <c r="BT37" t="n">
+        <v>1554</v>
+      </c>
+      <c r="BU37" t="n">
+        <v>23</v>
+      </c>
     </row>
     <row r="38">
       <c r="A38" t="inlineStr">
@@ -8813,6 +9039,12 @@
           <t>2-s2.0-84911891195</t>
         </is>
       </c>
+      <c r="BT38" t="n">
+        <v>1095</v>
+      </c>
+      <c r="BU38" t="n">
+        <v>21</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
